--- a/config_3.16/game_module_config_cjj.xlsx
+++ b/config_3.16/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="994">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3838,10 +3838,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_czzk</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>周卡</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3943,18 +3939,99 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_039_ty_sjb_style/act_001_ygbd</t>
-  </si>
-  <si>
-    <t>阳光榜单</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_039_ty_sjb_style/act_002_bzphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹排行榜</t>
+    <t>act_ty_task</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActivityTaskManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TYBYDROPManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_JZSJBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_BY_HHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦福利（半年）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月15号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_universal_dh</t>
+  </si>
+  <si>
+    <t>Act_Ty_UNIVERSAL_DHManager</t>
+  </si>
+  <si>
+    <t>act_ty_universal_dh_style/act_001_universal</t>
+  </si>
+  <si>
+    <t>act_048_xnsmt</t>
+  </si>
+  <si>
+    <t>新年送茅台</t>
+  </si>
+  <si>
+    <t>Act_048_XNSMTManager</t>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_003_taiyang</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月30日</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_prize_quiz</t>
+  </si>
+  <si>
+    <t>Act_Ty_PrizeQuizManager</t>
+  </si>
+  <si>
+    <t>2月30日</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能字</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能字资源皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月15日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3970,24 +4047,74 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1号</t>
+      <t>23</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_task</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActivityTaskManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_TYBYDROPManager</t>
+    <t>Act_049_XYHL</t>
+  </si>
+  <si>
+    <t>新游福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_049_XYHLManager</t>
+  </si>
+  <si>
+    <t>有奖问答</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_041_xyxfl</t>
+  </si>
+  <si>
+    <t>desc|按钮描述，描述了有牵连的都不能剥离</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_jbzk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币周卡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sys_Act_JBZKManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_xrxsfl</t>
+  </si>
+  <si>
+    <t>新人限时福利</t>
+  </si>
+  <si>
+    <t>Act_XRXSFLManager</t>
+  </si>
+  <si>
+    <t>act_ty_jrth</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼包购买+自动抽奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_JRTHManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_001_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落排行榜皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4019,7 +4146,15 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_004_baozhu</t>
+    <t>活动boss皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_001_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>换好礼皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4027,136 +4162,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>太阳换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_TY_JZSJBManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_TY_BY_HHLManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>元旦福利（半年）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月15号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月15日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_universal_dh</t>
-  </si>
-  <si>
-    <t>Act_Ty_UNIVERSAL_DHManager</t>
-  </si>
-  <si>
-    <t>act_ty_universal_dh_style/act_001_universal</t>
-  </si>
-  <si>
-    <t>act_048_xnsmt</t>
-  </si>
-  <si>
-    <t>新年送茅台</t>
-  </si>
-  <si>
-    <t>Act_048_XNSMTManager</t>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_006_jinyuanbao</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_001_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_base_style</t>
-  </si>
-  <si>
-    <t>阳光榜单</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_002_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月8日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_003_taiyang</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳掉落皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>日23:59:59</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹掉落皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_001_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_002_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动皮肤</t>
+    <t>sys_act_base_style/sys_act_base_normal_001</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周常活动皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4164,17 +4174,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>2月30日</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_prize_quiz</t>
-  </si>
-  <si>
-    <t>Act_Ty_PrizeQuizManager</t>
-  </si>
-  <si>
-    <t>2月30日</t>
+    <t>sys_act_base_style/sys_act_base_weekly_009</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展活动皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4182,265 +4186,26 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>消消乐争霸</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>Act_045_XXLBDManger</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>万能字</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月15日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>万能字资源皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_base_style</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>永久</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月15日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_005_fudai</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>福袋boss皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>23</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金元宝boss皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>23</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_007_xiaotangyuan</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>小汤圆boss皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>23</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_049_XYHL</t>
-  </si>
-  <si>
-    <t>新游福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_049_XYHLManager</t>
-  </si>
-  <si>
-    <t>有奖问答</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_003_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_004_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>元宵排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_003_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>元宵换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>集字榜单</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>23</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金元宝排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_005_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_004_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玫瑰换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3月9日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3月9日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_006_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玫瑰排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_008_meigui</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玫瑰boss皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_041_xyxfl</t>
-  </si>
-  <si>
-    <t>desc|按钮描述，描述了有牵连的都不能剥离</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼盒换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_005_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>3月15日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_jbzk</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币周卡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sys_Act_JBZKManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_xrxsfl</t>
-  </si>
-  <si>
-    <t>新人限时福利</t>
-  </si>
-  <si>
-    <t>Act_XRXSFLManager</t>
-  </si>
-  <si>
-    <t>act_ty_jrth</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼包购买+自动抽奖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_Ty_JRTHManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_007_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼盒排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3月15日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>消消乐争霸</t>
+    <t>act_ty_lb1_style/act_002_tylb1</t>
+  </si>
+  <si>
+    <t>通用礼包皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_czzk</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4448,7 +4213,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4546,6 +4311,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -4649,7 +4420,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4794,14 +4565,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -4816,6 +4581,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5095,13 +4872,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ341"/>
+  <dimension ref="A1:AJ325"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C315" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C300" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G331" sqref="G331"/>
+      <selection pane="bottomRight" activeCell="D313" sqref="D313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5125,7 +4902,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1017</v>
+        <v>964</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -7091,7 +6868,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="44" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5">
@@ -8208,8 +7985,8 @@
       <c r="G119" s="2">
         <v>1</v>
       </c>
-      <c r="I119" s="49" t="s">
-        <v>975</v>
+      <c r="I119" s="48" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5">
@@ -11506,13 +11283,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="24" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="C253" s="25" t="s">
         <v>736</v>
       </c>
       <c r="D253" s="24" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="E253" s="25">
         <v>1</v>
@@ -11585,13 +11362,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>1027</v>
+        <v>972</v>
       </c>
       <c r="C256" s="15" t="s">
-        <v>1028</v>
+        <v>973</v>
       </c>
       <c r="D256" s="15" t="s">
-        <v>1029</v>
+        <v>974</v>
       </c>
       <c r="E256" s="17">
         <v>1</v>
@@ -12075,53 +11852,53 @@
         <v>810</v>
       </c>
     </row>
-    <row r="275" spans="1:9" s="53" customFormat="1" ht="16.5">
-      <c r="A275" s="54">
+    <row r="275" spans="1:9" s="51" customFormat="1" ht="16.5">
+      <c r="A275" s="52">
         <v>274</v>
       </c>
-      <c r="B275" s="52" t="s">
+      <c r="B275" s="50" t="s">
         <v>812</v>
       </c>
-      <c r="C275" s="52" t="s">
+      <c r="C275" s="50" t="s">
         <v>811</v>
       </c>
-      <c r="D275" s="51" t="s">
+      <c r="D275" s="49" t="s">
         <v>813</v>
       </c>
-      <c r="E275" s="53">
-        <v>1</v>
-      </c>
-      <c r="F275" s="53">
-        <v>1</v>
-      </c>
-      <c r="G275" s="53">
-        <v>1</v>
-      </c>
-      <c r="I275" s="52" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" s="53" customFormat="1" ht="16.5">
-      <c r="A276" s="54">
+      <c r="E275" s="51">
+        <v>1</v>
+      </c>
+      <c r="F275" s="51">
+        <v>1</v>
+      </c>
+      <c r="G275" s="51">
+        <v>1</v>
+      </c>
+      <c r="I275" s="50" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" s="51" customFormat="1" ht="16.5">
+      <c r="A276" s="52">
         <v>275</v>
       </c>
-      <c r="B276" s="52" t="s">
+      <c r="B276" s="50" t="s">
         <v>814</v>
       </c>
-      <c r="C276" s="52" t="s">
+      <c r="C276" s="50" t="s">
         <v>815</v>
       </c>
-      <c r="E276" s="53">
-        <v>1</v>
-      </c>
-      <c r="F276" s="53">
-        <v>1</v>
-      </c>
-      <c r="G276" s="53">
-        <v>1</v>
-      </c>
-      <c r="I276" s="52" t="s">
-        <v>1020</v>
+      <c r="E276" s="51">
+        <v>1</v>
+      </c>
+      <c r="F276" s="51">
+        <v>1</v>
+      </c>
+      <c r="G276" s="51">
+        <v>1</v>
+      </c>
+      <c r="I276" s="50" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12811,13 +12588,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="38" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="C299" s="39" t="s">
         <v>914</v>
       </c>
       <c r="D299" s="38" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="E299" s="40">
         <v>1</v>
@@ -12865,13 +12642,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="38" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="C300" s="39" t="s">
         <v>913</v>
       </c>
       <c r="D300" s="38" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="E300" s="40">
         <v>1</v>
@@ -12892,13 +12669,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="38" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="C301" s="38" t="s">
         <v>893</v>
       </c>
       <c r="D301" s="38" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="E301" s="40">
         <v>1</v>
@@ -12949,7 +12726,7 @@
         <v>900</v>
       </c>
       <c r="C303" s="15" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="D303" s="18" t="s">
         <v>898</v>
@@ -13021,29 +12798,29 @@
         <v>912</v>
       </c>
     </row>
-    <row r="306" spans="1:9" s="53" customFormat="1" ht="16.5">
-      <c r="A306" s="54">
+    <row r="306" spans="1:9" s="51" customFormat="1" ht="16.5">
+      <c r="A306" s="52">
         <v>305</v>
       </c>
-      <c r="B306" s="51" t="s">
+      <c r="B306" s="49" t="s">
         <v>909</v>
       </c>
-      <c r="C306" s="52" t="s">
+      <c r="C306" s="50" t="s">
         <v>910</v>
       </c>
-      <c r="D306" s="51" t="s">
+      <c r="D306" s="49" t="s">
         <v>911</v>
       </c>
-      <c r="E306" s="53">
-        <v>1</v>
-      </c>
-      <c r="F306" s="53">
-        <v>1</v>
-      </c>
-      <c r="G306" s="53">
-        <v>1</v>
-      </c>
-      <c r="I306" s="52" t="s">
+      <c r="E306" s="51">
+        <v>1</v>
+      </c>
+      <c r="F306" s="51">
+        <v>1</v>
+      </c>
+      <c r="G306" s="51">
+        <v>1</v>
+      </c>
+      <c r="I306" s="50" t="s">
         <v>912</v>
       </c>
     </row>
@@ -13052,13 +12829,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="18" t="s">
+        <v>993</v>
+      </c>
+      <c r="C307" s="15" t="s">
         <v>915</v>
       </c>
-      <c r="C307" s="15" t="s">
+      <c r="D307" s="18" t="s">
         <v>916</v>
-      </c>
-      <c r="D307" s="18" t="s">
-        <v>917</v>
       </c>
       <c r="E307" s="17">
         <v>1</v>
@@ -13075,25 +12852,25 @@
         <v>307</v>
       </c>
       <c r="B308" s="34" t="s">
+        <v>917</v>
+      </c>
+      <c r="C308" s="15" t="s">
         <v>918</v>
       </c>
-      <c r="C308" s="15" t="s">
+      <c r="D308" s="18" t="s">
         <v>919</v>
       </c>
-      <c r="D308" s="18" t="s">
+      <c r="E308" s="17">
+        <v>0</v>
+      </c>
+      <c r="F308" s="17">
+        <v>0</v>
+      </c>
+      <c r="G308" s="17">
+        <v>0</v>
+      </c>
+      <c r="I308" s="15" t="s">
         <v>920</v>
-      </c>
-      <c r="E308" s="17">
-        <v>1</v>
-      </c>
-      <c r="F308" s="17">
-        <v>1</v>
-      </c>
-      <c r="G308" s="17">
-        <v>1</v>
-      </c>
-      <c r="I308" s="15" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="309" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -13101,13 +12878,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="34" t="s">
+        <v>921</v>
+      </c>
+      <c r="C309" s="15" t="s">
         <v>922</v>
       </c>
-      <c r="C309" s="15" t="s">
+      <c r="D309" s="34" t="s">
         <v>923</v>
-      </c>
-      <c r="D309" s="34" t="s">
-        <v>924</v>
       </c>
       <c r="E309" s="17">
         <v>1</v>
@@ -13127,25 +12904,25 @@
         <v>309</v>
       </c>
       <c r="B310" s="18" t="s">
+        <v>924</v>
+      </c>
+      <c r="C310" s="15" t="s">
         <v>925</v>
       </c>
-      <c r="C310" s="15" t="s">
+      <c r="D310" s="18" t="s">
         <v>926</v>
       </c>
-      <c r="D310" s="18" t="s">
+      <c r="E310" s="17">
+        <v>0</v>
+      </c>
+      <c r="F310" s="17">
+        <v>0</v>
+      </c>
+      <c r="G310" s="17">
+        <v>0</v>
+      </c>
+      <c r="I310" s="19" t="s">
         <v>927</v>
-      </c>
-      <c r="E310" s="17">
-        <v>0</v>
-      </c>
-      <c r="F310" s="17">
-        <v>1</v>
-      </c>
-      <c r="G310" s="17">
-        <v>1</v>
-      </c>
-      <c r="I310" s="19" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -13153,186 +12930,190 @@
         <v>310</v>
       </c>
       <c r="B311" s="34" t="s">
+        <v>928</v>
+      </c>
+      <c r="C311" s="15" t="s">
         <v>929</v>
       </c>
-      <c r="C311" s="15" t="s">
+      <c r="D311" s="34" t="s">
         <v>930</v>
       </c>
-      <c r="D311" s="34" t="s">
+      <c r="E311" s="17">
+        <v>0</v>
+      </c>
+      <c r="F311" s="17">
+        <v>0</v>
+      </c>
+      <c r="G311" s="17">
+        <v>0</v>
+      </c>
+      <c r="I311" s="15" t="s">
         <v>931</v>
       </c>
-      <c r="E311" s="17">
-        <v>0</v>
-      </c>
-      <c r="F311" s="17">
-        <v>1</v>
-      </c>
-      <c r="G311" s="17">
-        <v>1</v>
-      </c>
-      <c r="I311" s="15" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" s="17" customFormat="1" ht="16.5">
+    </row>
+    <row r="312" spans="1:9" s="51" customFormat="1" ht="16.5">
       <c r="A312" s="16">
         <v>311</v>
       </c>
-      <c r="B312" s="18" t="s">
-        <v>933</v>
-      </c>
-      <c r="C312" s="15" t="s">
-        <v>934</v>
-      </c>
-      <c r="E312" s="17">
-        <v>0</v>
-      </c>
-      <c r="F312" s="17">
-        <v>1</v>
-      </c>
-      <c r="G312" s="17">
-        <v>1</v>
-      </c>
-      <c r="I312" s="15" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="B312" s="49" t="s">
+        <v>975</v>
+      </c>
+      <c r="C312" s="50" t="s">
+        <v>976</v>
+      </c>
+      <c r="E312" s="51">
+        <v>0</v>
+      </c>
+      <c r="F312" s="51">
+        <v>0</v>
+      </c>
+      <c r="G312" s="51">
+        <v>0</v>
+      </c>
+      <c r="I312" s="50" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" s="51" customFormat="1" ht="16.5">
       <c r="A313" s="16">
         <v>312</v>
       </c>
-      <c r="B313" s="18" t="s">
-        <v>935</v>
-      </c>
-      <c r="C313" s="15" t="s">
-        <v>936</v>
-      </c>
-      <c r="E313" s="17">
-        <v>0</v>
-      </c>
-      <c r="F313" s="17">
-        <v>1</v>
-      </c>
-      <c r="G313" s="17">
-        <v>1</v>
-      </c>
-      <c r="I313" s="15" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="B313" s="49" t="s">
+        <v>949</v>
+      </c>
+      <c r="C313" s="50" t="s">
+        <v>978</v>
+      </c>
+      <c r="E313" s="51">
+        <v>0</v>
+      </c>
+      <c r="F313" s="51">
+        <v>0</v>
+      </c>
+      <c r="G313" s="51">
+        <v>0</v>
+      </c>
+      <c r="I313" s="50" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" s="51" customFormat="1" ht="16.5">
       <c r="A314" s="16">
         <v>313</v>
       </c>
-      <c r="B314" s="18" t="s">
-        <v>960</v>
-      </c>
-      <c r="C314" s="15" t="s">
-        <v>962</v>
-      </c>
-      <c r="E314" s="17">
-        <v>0</v>
-      </c>
-      <c r="F314" s="17">
-        <v>1</v>
-      </c>
-      <c r="G314" s="17">
-        <v>1</v>
-      </c>
-      <c r="I314" s="15" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="B314" s="49" t="s">
+        <v>979</v>
+      </c>
+      <c r="C314" s="50" t="s">
+        <v>980</v>
+      </c>
+      <c r="E314" s="51">
+        <v>0</v>
+      </c>
+      <c r="F314" s="51">
+        <v>0</v>
+      </c>
+      <c r="G314" s="51">
+        <v>0</v>
+      </c>
+      <c r="I314" s="50" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" s="51" customFormat="1" ht="16.5">
       <c r="A315" s="16">
         <v>314</v>
       </c>
-      <c r="B315" s="18" t="s">
-        <v>963</v>
-      </c>
-      <c r="C315" s="15" t="s">
-        <v>964</v>
-      </c>
-      <c r="E315" s="17">
-        <v>0</v>
-      </c>
-      <c r="F315" s="17">
-        <v>1</v>
-      </c>
-      <c r="G315" s="17">
-        <v>1</v>
-      </c>
-      <c r="I315" s="15" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="B315" s="54" t="s">
+        <v>982</v>
+      </c>
+      <c r="C315" s="50" t="s">
+        <v>983</v>
+      </c>
+      <c r="E315" s="51">
+        <v>1</v>
+      </c>
+      <c r="F315" s="51">
+        <v>1</v>
+      </c>
+      <c r="G315" s="51">
+        <v>1</v>
+      </c>
+      <c r="I315" s="55" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" s="51" customFormat="1" ht="16.5">
       <c r="A316" s="16">
         <v>315</v>
       </c>
-      <c r="B316" s="18" t="s">
-        <v>966</v>
-      </c>
-      <c r="C316" s="17" t="s">
-        <v>967</v>
-      </c>
-      <c r="E316" s="17">
-        <v>0</v>
-      </c>
-      <c r="F316" s="17">
-        <v>1</v>
-      </c>
-      <c r="G316" s="17">
-        <v>1</v>
-      </c>
-      <c r="I316" s="15" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="B316" s="56" t="s">
+        <v>985</v>
+      </c>
+      <c r="C316" s="50" t="s">
+        <v>986</v>
+      </c>
+      <c r="E316" s="51">
+        <v>1</v>
+      </c>
+      <c r="F316" s="51">
+        <v>1</v>
+      </c>
+      <c r="G316" s="51">
+        <v>1</v>
+      </c>
+      <c r="I316" s="55" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" s="51" customFormat="1" ht="16.5">
       <c r="A317" s="16">
         <v>316</v>
       </c>
-      <c r="B317" s="18" t="s">
-        <v>943</v>
-      </c>
-      <c r="C317" s="15" t="s">
-        <v>969</v>
-      </c>
-      <c r="E317" s="17">
-        <v>0</v>
-      </c>
-      <c r="F317" s="17">
-        <v>1</v>
-      </c>
-      <c r="G317" s="17">
-        <v>1</v>
-      </c>
-      <c r="I317" s="15" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="B317" s="49" t="s">
+        <v>987</v>
+      </c>
+      <c r="C317" s="50" t="s">
+        <v>988</v>
+      </c>
+      <c r="D317" s="49" t="s">
+        <v>989</v>
+      </c>
+      <c r="E317" s="51">
+        <v>1</v>
+      </c>
+      <c r="F317" s="51">
+        <v>1</v>
+      </c>
+      <c r="G317" s="51">
+        <v>1</v>
+      </c>
+      <c r="I317" s="50" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" s="51" customFormat="1" ht="16.5">
       <c r="A318" s="16">
         <v>317</v>
       </c>
-      <c r="B318" s="18" t="s">
-        <v>970</v>
-      </c>
-      <c r="C318" s="15" t="s">
-        <v>945</v>
-      </c>
-      <c r="E318" s="17">
-        <v>0</v>
-      </c>
-      <c r="F318" s="17">
-        <v>1</v>
-      </c>
-      <c r="G318" s="17">
-        <v>1</v>
-      </c>
-      <c r="I318" s="15" t="s">
-        <v>944</v>
+      <c r="B318" s="57" t="s">
+        <v>991</v>
+      </c>
+      <c r="C318" s="50" t="s">
+        <v>992</v>
+      </c>
+      <c r="D318" s="49"/>
+      <c r="E318" s="51">
+        <v>0</v>
+      </c>
+      <c r="F318" s="51">
+        <v>0</v>
+      </c>
+      <c r="G318" s="51">
+        <v>0</v>
+      </c>
+      <c r="I318" s="50" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13340,71 +13121,77 @@
         <v>318</v>
       </c>
       <c r="B319" s="18" t="s">
-        <v>971</v>
+        <v>943</v>
       </c>
       <c r="C319" s="15" t="s">
-        <v>972</v>
+        <v>954</v>
+      </c>
+      <c r="D319" s="18" t="s">
+        <v>944</v>
       </c>
       <c r="E319" s="17">
         <v>0</v>
       </c>
       <c r="F319" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G319" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" s="15" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A320" s="16">
         <v>319</v>
       </c>
-      <c r="B320" s="48" t="s">
-        <v>961</v>
+      <c r="B320" s="18" t="s">
+        <v>945</v>
       </c>
       <c r="C320" s="15" t="s">
-        <v>973</v>
+        <v>956</v>
       </c>
       <c r="E320" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F320" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G320" s="17">
-        <v>1</v>
-      </c>
-      <c r="I320" s="19" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" s="53" customFormat="1" ht="16.5">
+        <v>0</v>
+      </c>
+      <c r="I320" s="15" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A321" s="16">
         <v>320</v>
       </c>
-      <c r="B321" s="51" t="s">
-        <v>979</v>
-      </c>
-      <c r="C321" s="52" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D321" s="51" t="s">
-        <v>980</v>
-      </c>
-      <c r="E321" s="53">
-        <v>1</v>
-      </c>
-      <c r="F321" s="53">
-        <v>1</v>
-      </c>
-      <c r="G321" s="53">
-        <v>1</v>
-      </c>
-      <c r="I321" s="52" t="s">
-        <v>1020</v>
+      <c r="B321" s="18" t="s">
+        <v>946</v>
+      </c>
+      <c r="C321" s="18" t="s">
+        <v>947</v>
+      </c>
+      <c r="D321" s="18" t="s">
+        <v>948</v>
+      </c>
+      <c r="E321" s="17">
+        <v>0</v>
+      </c>
+      <c r="F321" s="17">
+        <v>0</v>
+      </c>
+      <c r="G321" s="17">
+        <v>0</v>
+      </c>
+      <c r="H321" s="17" t="s">
+        <v>963</v>
+      </c>
+      <c r="I321" s="15" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="322" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13412,25 +13199,25 @@
         <v>321</v>
       </c>
       <c r="B322" s="18" t="s">
-        <v>953</v>
-      </c>
-      <c r="C322" s="15" t="s">
-        <v>981</v>
+        <v>959</v>
+      </c>
+      <c r="C322" s="19" t="s">
+        <v>960</v>
       </c>
       <c r="D322" s="18" t="s">
-        <v>954</v>
+        <v>961</v>
       </c>
       <c r="E322" s="17">
         <v>0</v>
       </c>
       <c r="F322" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G322" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" s="15" t="s">
-        <v>982</v>
+        <v>958</v>
       </c>
     </row>
     <row r="323" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13438,30 +13225,39 @@
         <v>322</v>
       </c>
       <c r="B323" s="18" t="s">
-        <v>955</v>
-      </c>
-      <c r="C323" s="15" t="s">
-        <v>983</v>
+        <v>951</v>
+      </c>
+      <c r="C323" s="19" t="s">
+        <v>962</v>
+      </c>
+      <c r="D323" s="18" t="s">
+        <v>952</v>
       </c>
       <c r="E323" s="17">
         <v>0</v>
       </c>
       <c r="F323" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G323" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" s="15" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" s="17" customFormat="1" ht="16.5">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" ht="16.5">
       <c r="A324" s="16">
         <v>323</v>
       </c>
-      <c r="B324" s="50" t="s">
-        <v>984</v>
+      <c r="B324" s="53" t="s">
+        <v>966</v>
+      </c>
+      <c r="C324" s="19" t="s">
+        <v>967</v>
+      </c>
+      <c r="D324" t="s">
+        <v>968</v>
       </c>
       <c r="E324" s="17">
         <v>1</v>
@@ -13472,419 +13268,34 @@
       <c r="G324" s="17">
         <v>1</v>
       </c>
-      <c r="I324" s="19" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="I324" s="15" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" ht="16.5">
       <c r="A325" s="16">
         <v>324</v>
       </c>
-      <c r="B325" s="18" t="s">
-        <v>956</v>
-      </c>
-      <c r="C325" s="18" t="s">
-        <v>957</v>
-      </c>
-      <c r="D325" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="E325" s="17">
-        <v>1</v>
-      </c>
-      <c r="F325" s="17">
-        <v>1</v>
-      </c>
-      <c r="G325" s="17">
-        <v>1</v>
-      </c>
-      <c r="H325" s="17" t="s">
-        <v>1016</v>
-      </c>
-      <c r="I325" s="15" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A326" s="16">
-        <v>325</v>
-      </c>
-      <c r="B326" s="18" t="s">
-        <v>987</v>
-      </c>
-      <c r="C326" s="19" t="s">
-        <v>988</v>
-      </c>
-      <c r="E326" s="17">
-        <v>0</v>
-      </c>
-      <c r="F326" s="17">
-        <v>1</v>
-      </c>
-      <c r="G326" s="17">
-        <v>1</v>
-      </c>
-      <c r="I326" s="15" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A327" s="16">
-        <v>326</v>
-      </c>
-      <c r="B327" s="18" t="s">
-        <v>959</v>
-      </c>
-      <c r="C327" s="19" t="s">
-        <v>990</v>
-      </c>
-      <c r="E327" s="17">
-        <v>0</v>
-      </c>
-      <c r="F327" s="17">
-        <v>1</v>
-      </c>
-      <c r="G327" s="17">
-        <v>1</v>
-      </c>
-      <c r="I327" s="15" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A328" s="16">
-        <v>327</v>
-      </c>
-      <c r="B328" s="18" t="s">
-        <v>992</v>
-      </c>
-      <c r="C328" s="19" t="s">
-        <v>993</v>
-      </c>
-      <c r="E328" s="17">
-        <v>0</v>
-      </c>
-      <c r="F328" s="17">
-        <v>1</v>
-      </c>
-      <c r="G328" s="17">
-        <v>1</v>
-      </c>
-      <c r="I328" s="15" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A329" s="16">
-        <v>328</v>
-      </c>
-      <c r="B329" s="18" t="s">
-        <v>995</v>
-      </c>
-      <c r="C329" s="19" t="s">
-        <v>996</v>
-      </c>
-      <c r="D329" s="18" t="s">
-        <v>997</v>
-      </c>
-      <c r="E329" s="17">
-        <v>0</v>
-      </c>
-      <c r="F329" s="17">
-        <v>1</v>
-      </c>
-      <c r="G329" s="17">
-        <v>1</v>
-      </c>
-      <c r="I329" s="15" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A330" s="16">
-        <v>329</v>
-      </c>
-      <c r="B330" s="18" t="s">
-        <v>976</v>
-      </c>
-      <c r="C330" s="19" t="s">
-        <v>998</v>
-      </c>
-      <c r="D330" s="18" t="s">
-        <v>977</v>
-      </c>
-      <c r="E330" s="17">
-        <v>0</v>
-      </c>
-      <c r="F330" s="17">
-        <v>1</v>
-      </c>
-      <c r="G330" s="17">
-        <v>1</v>
-      </c>
-      <c r="I330" s="15" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A331" s="16">
-        <v>330</v>
-      </c>
-      <c r="B331" s="18" t="s">
-        <v>999</v>
-      </c>
-      <c r="C331" s="15" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E331" s="17">
-        <v>0</v>
-      </c>
-      <c r="F331" s="17">
-        <v>1</v>
-      </c>
-      <c r="G331" s="17">
-        <v>1</v>
-      </c>
-      <c r="I331" s="15" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A332" s="16">
-        <v>331</v>
-      </c>
-      <c r="B332" s="18" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C332" s="15" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E332" s="17">
-        <v>0</v>
-      </c>
-      <c r="F332" s="17">
-        <v>1</v>
-      </c>
-      <c r="G332" s="17">
-        <v>1</v>
-      </c>
-      <c r="I332" s="15" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A333" s="16">
-        <v>332</v>
-      </c>
-      <c r="B333" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C333" s="15" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E333" s="17">
-        <v>0</v>
-      </c>
-      <c r="F333" s="17">
-        <v>1</v>
-      </c>
-      <c r="G333" s="17">
-        <v>1</v>
-      </c>
-      <c r="I333" s="15" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A334" s="16">
-        <v>333</v>
-      </c>
-      <c r="B334" s="18" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C334" s="15" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E334" s="17">
-        <v>0</v>
-      </c>
-      <c r="F334" s="17">
-        <v>1</v>
-      </c>
-      <c r="G334" s="17">
-        <v>1</v>
-      </c>
-      <c r="I334" s="15" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A335" s="16">
-        <v>334</v>
-      </c>
-      <c r="B335" s="18" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C335" s="15" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E335" s="17">
-        <v>0</v>
-      </c>
-      <c r="F335" s="17">
-        <v>1</v>
-      </c>
-      <c r="G335" s="17">
-        <v>1</v>
-      </c>
-      <c r="I335" s="15" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A336" s="16">
-        <v>335</v>
-      </c>
-      <c r="B336" s="18" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C336" s="15" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E336" s="17">
-        <v>0</v>
-      </c>
-      <c r="F336" s="17">
-        <v>1</v>
-      </c>
-      <c r="G336" s="17">
-        <v>1</v>
-      </c>
-      <c r="I336" s="15" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A337" s="16">
-        <v>336</v>
-      </c>
-      <c r="B337" s="18" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C337" s="19" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E337" s="17">
-        <v>0</v>
-      </c>
-      <c r="F337" s="17">
-        <v>1</v>
-      </c>
-      <c r="G337" s="17">
-        <v>1</v>
-      </c>
-      <c r="I337" s="15" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A338" s="16">
-        <v>337</v>
-      </c>
-      <c r="B338" s="51" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C338" s="52" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D338" s="53"/>
-      <c r="E338" s="53">
-        <v>1</v>
-      </c>
-      <c r="F338" s="53">
-        <v>1</v>
-      </c>
-      <c r="G338" s="53">
-        <v>1</v>
-      </c>
-      <c r="H338" s="53"/>
-      <c r="I338" s="52" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" ht="16.5">
-      <c r="A339" s="16">
-        <v>338</v>
-      </c>
-      <c r="B339" s="55" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C339" s="19" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D339" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E339" s="17">
-        <v>1</v>
-      </c>
-      <c r="F339" s="17">
-        <v>1</v>
-      </c>
-      <c r="G339" s="17">
-        <v>1</v>
-      </c>
-      <c r="I339" s="15" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" ht="16.5">
-      <c r="A340" s="16">
-        <v>339</v>
-      </c>
-      <c r="B340" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C340" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D340" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E340">
-        <v>1</v>
-      </c>
-      <c r="F340">
-        <v>1</v>
-      </c>
-      <c r="G340">
-        <v>1</v>
-      </c>
-      <c r="I340" t="s">
+      <c r="B325" t="s">
+        <v>969</v>
+      </c>
+      <c r="C325" t="s">
+        <v>970</v>
+      </c>
+      <c r="D325" t="s">
+        <v>971</v>
+      </c>
+      <c r="E325">
+        <v>1</v>
+      </c>
+      <c r="F325">
+        <v>1</v>
+      </c>
+      <c r="G325">
+        <v>1</v>
+      </c>
+      <c r="I325" t="s">
         <v>863</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" s="53" customFormat="1" ht="16.5">
-      <c r="A341" s="16">
-        <v>340</v>
-      </c>
-      <c r="B341" s="51" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C341" s="52" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E341" s="53">
-        <v>1</v>
-      </c>
-      <c r="F341" s="53">
-        <v>1</v>
-      </c>
-      <c r="G341" s="53">
-        <v>1</v>
-      </c>
-      <c r="I341" s="52" t="s">
-        <v>1032</v>
       </c>
     </row>
   </sheetData>

--- a/config_3.16/game_module_config_cjj.xlsx
+++ b/config_3.16/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="995">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4206,6 +4206,10 @@
   </si>
   <si>
     <t>sys_act_czzk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月22日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4875,10 +4879,10 @@
   <dimension ref="A1:AJ325"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C300" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C270" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D313" sqref="D313"/>
+      <selection pane="bottomRight" activeCell="E274" sqref="E274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11852,29 +11856,29 @@
         <v>810</v>
       </c>
     </row>
-    <row r="275" spans="1:9" s="51" customFormat="1" ht="16.5">
-      <c r="A275" s="52">
+    <row r="275" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A275" s="16">
         <v>274</v>
       </c>
-      <c r="B275" s="50" t="s">
+      <c r="B275" s="15" t="s">
         <v>812</v>
       </c>
-      <c r="C275" s="50" t="s">
+      <c r="C275" s="15" t="s">
         <v>811</v>
       </c>
-      <c r="D275" s="49" t="s">
+      <c r="D275" s="18" t="s">
         <v>813</v>
       </c>
-      <c r="E275" s="51">
-        <v>1</v>
-      </c>
-      <c r="F275" s="51">
-        <v>1</v>
-      </c>
-      <c r="G275" s="51">
-        <v>1</v>
-      </c>
-      <c r="I275" s="50" t="s">
+      <c r="E275" s="17">
+        <v>0</v>
+      </c>
+      <c r="F275" s="17">
+        <v>0</v>
+      </c>
+      <c r="G275" s="17">
+        <v>0</v>
+      </c>
+      <c r="I275" s="15" t="s">
         <v>965</v>
       </c>
     </row>
@@ -11898,7 +11902,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="50" t="s">
-        <v>965</v>
+        <v>994</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12772,55 +12776,55 @@
         <v>902</v>
       </c>
     </row>
-    <row r="305" spans="1:9" s="17" customFormat="1" ht="16.5">
+    <row r="305" spans="1:9" s="51" customFormat="1" ht="16.5">
       <c r="A305" s="16">
         <v>304</v>
       </c>
-      <c r="B305" s="18" t="s">
+      <c r="B305" s="49" t="s">
         <v>906</v>
       </c>
-      <c r="C305" s="15" t="s">
+      <c r="C305" s="50" t="s">
         <v>907</v>
       </c>
-      <c r="D305" s="18" t="s">
+      <c r="D305" s="49" t="s">
         <v>908</v>
       </c>
-      <c r="E305" s="17">
-        <v>1</v>
-      </c>
-      <c r="F305" s="17">
-        <v>1</v>
-      </c>
-      <c r="G305" s="17">
-        <v>1</v>
-      </c>
-      <c r="I305" s="15" t="s">
+      <c r="E305" s="51">
+        <v>1</v>
+      </c>
+      <c r="F305" s="51">
+        <v>1</v>
+      </c>
+      <c r="G305" s="51">
+        <v>1</v>
+      </c>
+      <c r="I305" s="50" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="306" spans="1:9" s="51" customFormat="1" ht="16.5">
-      <c r="A306" s="52">
+    <row r="306" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A306" s="16">
         <v>305</v>
       </c>
-      <c r="B306" s="49" t="s">
+      <c r="B306" s="18" t="s">
         <v>909</v>
       </c>
-      <c r="C306" s="50" t="s">
+      <c r="C306" s="15" t="s">
         <v>910</v>
       </c>
-      <c r="D306" s="49" t="s">
+      <c r="D306" s="18" t="s">
         <v>911</v>
       </c>
-      <c r="E306" s="51">
-        <v>1</v>
-      </c>
-      <c r="F306" s="51">
-        <v>1</v>
-      </c>
-      <c r="G306" s="51">
-        <v>1</v>
-      </c>
-      <c r="I306" s="50" t="s">
+      <c r="E306" s="17">
+        <v>0</v>
+      </c>
+      <c r="F306" s="17">
+        <v>0</v>
+      </c>
+      <c r="G306" s="17">
+        <v>0</v>
+      </c>
+      <c r="I306" s="15" t="s">
         <v>912</v>
       </c>
     </row>

--- a/config_3.16/game_module_config_cjj.xlsx
+++ b/config_3.16/game_module_config_cjj.xlsx
@@ -4596,7 +4596,7 @@
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4879,10 +4879,10 @@
   <dimension ref="A1:AJ325"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C270" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C306" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E274" sqref="E274"/>
+      <selection pane="bottomRight" activeCell="C315" sqref="C315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13012,13 +13012,13 @@
         <v>980</v>
       </c>
       <c r="E314" s="51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F314" s="51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G314" s="51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I314" s="50" t="s">
         <v>981</v>
@@ -13096,27 +13096,27 @@
         <v>990</v>
       </c>
     </row>
-    <row r="318" spans="1:9" s="51" customFormat="1" ht="16.5">
+    <row r="318" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A318" s="16">
         <v>317</v>
       </c>
       <c r="B318" s="57" t="s">
         <v>991</v>
       </c>
-      <c r="C318" s="50" t="s">
+      <c r="C318" s="15" t="s">
         <v>992</v>
       </c>
-      <c r="D318" s="49"/>
-      <c r="E318" s="51">
-        <v>0</v>
-      </c>
-      <c r="F318" s="51">
-        <v>0</v>
-      </c>
-      <c r="G318" s="51">
-        <v>0</v>
-      </c>
-      <c r="I318" s="50" t="s">
+      <c r="D318" s="18"/>
+      <c r="E318" s="17">
+        <v>0</v>
+      </c>
+      <c r="F318" s="17">
+        <v>0</v>
+      </c>
+      <c r="G318" s="17">
+        <v>0</v>
+      </c>
+      <c r="I318" s="15" t="s">
         <v>990</v>
       </c>
     </row>

--- a/config_3.16/game_module_config_cjj.xlsx
+++ b/config_3.16/game_module_config_cjj.xlsx
@@ -4110,10 +4110,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_001_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>掉落排行榜皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4210,6 +4206,10 @@
   </si>
   <si>
     <t>3月22日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_008_dlphb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4882,7 +4882,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C306" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C315" sqref="C315"/>
+      <selection pane="bottomRight" activeCell="B312" sqref="B312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11902,7 +11902,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="50" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12833,7 +12833,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="18" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C307" s="15" t="s">
         <v>915</v>
@@ -12960,22 +12960,22 @@
         <v>311</v>
       </c>
       <c r="B312" s="49" t="s">
+        <v>994</v>
+      </c>
+      <c r="C312" s="50" t="s">
         <v>975</v>
       </c>
-      <c r="C312" s="50" t="s">
+      <c r="E312" s="51">
+        <v>1</v>
+      </c>
+      <c r="F312" s="51">
+        <v>1</v>
+      </c>
+      <c r="G312" s="51">
+        <v>1</v>
+      </c>
+      <c r="I312" s="50" t="s">
         <v>976</v>
-      </c>
-      <c r="E312" s="51">
-        <v>0</v>
-      </c>
-      <c r="F312" s="51">
-        <v>0</v>
-      </c>
-      <c r="G312" s="51">
-        <v>0</v>
-      </c>
-      <c r="I312" s="50" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -12986,19 +12986,19 @@
         <v>949</v>
       </c>
       <c r="C313" s="50" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E313" s="51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F313" s="51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G313" s="51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I313" s="50" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13006,22 +13006,22 @@
         <v>313</v>
       </c>
       <c r="B314" s="49" t="s">
+        <v>978</v>
+      </c>
+      <c r="C314" s="50" t="s">
         <v>979</v>
       </c>
-      <c r="C314" s="50" t="s">
+      <c r="E314" s="51">
+        <v>1</v>
+      </c>
+      <c r="F314" s="51">
+        <v>1</v>
+      </c>
+      <c r="G314" s="51">
+        <v>1</v>
+      </c>
+      <c r="I314" s="50" t="s">
         <v>980</v>
-      </c>
-      <c r="E314" s="51">
-        <v>1</v>
-      </c>
-      <c r="F314" s="51">
-        <v>1</v>
-      </c>
-      <c r="G314" s="51">
-        <v>1</v>
-      </c>
-      <c r="I314" s="50" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13029,22 +13029,22 @@
         <v>314</v>
       </c>
       <c r="B315" s="54" t="s">
+        <v>981</v>
+      </c>
+      <c r="C315" s="50" t="s">
         <v>982</v>
       </c>
-      <c r="C315" s="50" t="s">
+      <c r="E315" s="51">
+        <v>1</v>
+      </c>
+      <c r="F315" s="51">
+        <v>1</v>
+      </c>
+      <c r="G315" s="51">
+        <v>1</v>
+      </c>
+      <c r="I315" s="55" t="s">
         <v>983</v>
-      </c>
-      <c r="E315" s="51">
-        <v>1</v>
-      </c>
-      <c r="F315" s="51">
-        <v>1</v>
-      </c>
-      <c r="G315" s="51">
-        <v>1</v>
-      </c>
-      <c r="I315" s="55" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13052,10 +13052,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="56" t="s">
+        <v>984</v>
+      </c>
+      <c r="C316" s="50" t="s">
         <v>985</v>
-      </c>
-      <c r="C316" s="50" t="s">
-        <v>986</v>
       </c>
       <c r="E316" s="51">
         <v>1</v>
@@ -13075,25 +13075,25 @@
         <v>316</v>
       </c>
       <c r="B317" s="49" t="s">
+        <v>986</v>
+      </c>
+      <c r="C317" s="50" t="s">
         <v>987</v>
       </c>
-      <c r="C317" s="50" t="s">
+      <c r="D317" s="49" t="s">
         <v>988</v>
       </c>
-      <c r="D317" s="49" t="s">
+      <c r="E317" s="51">
+        <v>1</v>
+      </c>
+      <c r="F317" s="51">
+        <v>1</v>
+      </c>
+      <c r="G317" s="51">
+        <v>1</v>
+      </c>
+      <c r="I317" s="50" t="s">
         <v>989</v>
-      </c>
-      <c r="E317" s="51">
-        <v>1</v>
-      </c>
-      <c r="F317" s="51">
-        <v>1</v>
-      </c>
-      <c r="G317" s="51">
-        <v>1</v>
-      </c>
-      <c r="I317" s="50" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13101,10 +13101,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="57" t="s">
+        <v>990</v>
+      </c>
+      <c r="C318" s="15" t="s">
         <v>991</v>
-      </c>
-      <c r="C318" s="15" t="s">
-        <v>992</v>
       </c>
       <c r="D318" s="18"/>
       <c r="E318" s="17">
@@ -13117,7 +13117,7 @@
         <v>0</v>
       </c>
       <c r="I318" s="15" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">

--- a/config_3.16/game_module_config_cjj.xlsx
+++ b/config_3.16/game_module_config_cjj.xlsx
@@ -4110,10 +4110,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>掉落排行榜皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>2月</t>
     </r>
@@ -4142,10 +4138,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>活动boss皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_ty_by_hhl_style/act_001_hhl</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4210,6 +4202,14 @@
   </si>
   <si>
     <t>act_ty_sjb_style/act_008_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落排行榜皮肤（桃花）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动boss皮肤（桃花）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4879,10 +4879,10 @@
   <dimension ref="A1:AJ325"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C306" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C303" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B312" sqref="B312"/>
+      <selection pane="bottomRight" activeCell="C316" sqref="C316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11902,7 +11902,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="50" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12833,7 +12833,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="18" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C307" s="15" t="s">
         <v>915</v>
@@ -12960,22 +12960,22 @@
         <v>311</v>
       </c>
       <c r="B312" s="49" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C312" s="50" t="s">
+        <v>993</v>
+      </c>
+      <c r="E312" s="51">
+        <v>1</v>
+      </c>
+      <c r="F312" s="51">
+        <v>1</v>
+      </c>
+      <c r="G312" s="51">
+        <v>1</v>
+      </c>
+      <c r="I312" s="50" t="s">
         <v>975</v>
-      </c>
-      <c r="E312" s="51">
-        <v>1</v>
-      </c>
-      <c r="F312" s="51">
-        <v>1</v>
-      </c>
-      <c r="G312" s="51">
-        <v>1</v>
-      </c>
-      <c r="I312" s="50" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -12986,7 +12986,7 @@
         <v>949</v>
       </c>
       <c r="C313" s="50" t="s">
-        <v>977</v>
+        <v>994</v>
       </c>
       <c r="E313" s="51">
         <v>1</v>
@@ -12998,7 +12998,7 @@
         <v>1</v>
       </c>
       <c r="I313" s="50" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13006,22 +13006,22 @@
         <v>313</v>
       </c>
       <c r="B314" s="49" t="s">
+        <v>976</v>
+      </c>
+      <c r="C314" s="50" t="s">
+        <v>977</v>
+      </c>
+      <c r="E314" s="51">
+        <v>1</v>
+      </c>
+      <c r="F314" s="51">
+        <v>1</v>
+      </c>
+      <c r="G314" s="51">
+        <v>1</v>
+      </c>
+      <c r="I314" s="50" t="s">
         <v>978</v>
-      </c>
-      <c r="C314" s="50" t="s">
-        <v>979</v>
-      </c>
-      <c r="E314" s="51">
-        <v>1</v>
-      </c>
-      <c r="F314" s="51">
-        <v>1</v>
-      </c>
-      <c r="G314" s="51">
-        <v>1</v>
-      </c>
-      <c r="I314" s="50" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13029,22 +13029,22 @@
         <v>314</v>
       </c>
       <c r="B315" s="54" t="s">
+        <v>979</v>
+      </c>
+      <c r="C315" s="50" t="s">
+        <v>980</v>
+      </c>
+      <c r="E315" s="51">
+        <v>1</v>
+      </c>
+      <c r="F315" s="51">
+        <v>1</v>
+      </c>
+      <c r="G315" s="51">
+        <v>1</v>
+      </c>
+      <c r="I315" s="55" t="s">
         <v>981</v>
-      </c>
-      <c r="C315" s="50" t="s">
-        <v>982</v>
-      </c>
-      <c r="E315" s="51">
-        <v>1</v>
-      </c>
-      <c r="F315" s="51">
-        <v>1</v>
-      </c>
-      <c r="G315" s="51">
-        <v>1</v>
-      </c>
-      <c r="I315" s="55" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13052,10 +13052,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="56" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C316" s="50" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E316" s="51">
         <v>1</v>
@@ -13075,25 +13075,25 @@
         <v>316</v>
       </c>
       <c r="B317" s="49" t="s">
+        <v>984</v>
+      </c>
+      <c r="C317" s="50" t="s">
+        <v>985</v>
+      </c>
+      <c r="D317" s="49" t="s">
         <v>986</v>
       </c>
-      <c r="C317" s="50" t="s">
+      <c r="E317" s="51">
+        <v>1</v>
+      </c>
+      <c r="F317" s="51">
+        <v>1</v>
+      </c>
+      <c r="G317" s="51">
+        <v>1</v>
+      </c>
+      <c r="I317" s="50" t="s">
         <v>987</v>
-      </c>
-      <c r="D317" s="49" t="s">
-        <v>988</v>
-      </c>
-      <c r="E317" s="51">
-        <v>1</v>
-      </c>
-      <c r="F317" s="51">
-        <v>1</v>
-      </c>
-      <c r="G317" s="51">
-        <v>1</v>
-      </c>
-      <c r="I317" s="50" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13101,10 +13101,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="57" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C318" s="15" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D318" s="18"/>
       <c r="E318" s="17">
@@ -13117,7 +13117,7 @@
         <v>0</v>
       </c>
       <c r="I318" s="15" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">

--- a/config_3.16/game_module_config_cjj.xlsx
+++ b/config_3.16/game_module_config_cjj.xlsx
@@ -4001,10 +4001,6 @@
     <t>Act_048_XNSMTManager</t>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_003_taiyang</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>2月30日</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4138,7 +4134,54 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_001_hhl</t>
+    <t>2月8日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_045_XXLBDManger</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_lb1_style/act_002_tylb1</t>
+  </si>
+  <si>
+    <t>通用礼包皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_czzk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月22日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_008_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落排行榜皮肤（桃花）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_010_taohua</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动boss皮肤（桃花）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_006_hhl</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4146,10 +4189,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>2月8日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>sys_act_base_style/sys_act_base_normal_001</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4158,10 +4197,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>永久</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>sys_act_base_style/sys_act_base_weekly_009</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4175,41 +4210,6 @@
   </si>
   <si>
     <t>消消乐争霸</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_045_XXLBDManger</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3月15日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_lb1_style/act_002_tylb1</t>
-  </si>
-  <si>
-    <t>通用礼包皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_czzk</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3月22日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_008_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落排行榜皮肤（桃花）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动boss皮肤（桃花）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -7990,7 +7990,7 @@
         <v>1</v>
       </c>
       <c r="I119" s="48" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5">
@@ -11366,13 +11366,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="15" t="s">
+        <v>971</v>
+      </c>
+      <c r="C256" s="15" t="s">
         <v>972</v>
       </c>
-      <c r="C256" s="15" t="s">
+      <c r="D256" s="15" t="s">
         <v>973</v>
-      </c>
-      <c r="D256" s="15" t="s">
-        <v>974</v>
       </c>
       <c r="E256" s="17">
         <v>1</v>
@@ -11879,7 +11879,7 @@
         <v>0</v>
       </c>
       <c r="I275" s="15" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -11902,7 +11902,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="50" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12833,7 +12833,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="18" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="C307" s="15" t="s">
         <v>915</v>
@@ -12960,10 +12960,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="49" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="C312" s="50" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="E312" s="51">
         <v>1</v>
@@ -12975,7 +12975,7 @@
         <v>1</v>
       </c>
       <c r="I312" s="50" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -12983,10 +12983,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="49" t="s">
-        <v>949</v>
+        <v>985</v>
       </c>
       <c r="C313" s="50" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="E313" s="51">
         <v>1</v>
@@ -12998,7 +12998,7 @@
         <v>1</v>
       </c>
       <c r="I313" s="50" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13006,10 +13006,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="49" t="s">
-        <v>976</v>
+        <v>987</v>
       </c>
       <c r="C314" s="50" t="s">
-        <v>977</v>
+        <v>988</v>
       </c>
       <c r="E314" s="51">
         <v>1</v>
@@ -13021,7 +13021,7 @@
         <v>1</v>
       </c>
       <c r="I314" s="50" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13029,10 +13029,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="54" t="s">
-        <v>979</v>
+        <v>989</v>
       </c>
       <c r="C315" s="50" t="s">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="E315" s="51">
         <v>1</v>
@@ -13044,7 +13044,7 @@
         <v>1</v>
       </c>
       <c r="I315" s="55" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="51" customFormat="1" ht="16.5">
@@ -13052,10 +13052,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="56" t="s">
-        <v>982</v>
+        <v>991</v>
       </c>
       <c r="C316" s="50" t="s">
-        <v>983</v>
+        <v>992</v>
       </c>
       <c r="E316" s="51">
         <v>1</v>
@@ -13075,13 +13075,13 @@
         <v>316</v>
       </c>
       <c r="B317" s="49" t="s">
-        <v>984</v>
+        <v>993</v>
       </c>
       <c r="C317" s="50" t="s">
-        <v>985</v>
+        <v>994</v>
       </c>
       <c r="D317" s="49" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="E317" s="51">
         <v>1</v>
@@ -13093,7 +13093,7 @@
         <v>1</v>
       </c>
       <c r="I317" s="50" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13101,10 +13101,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="57" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="C318" s="15" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="D318" s="18"/>
       <c r="E318" s="17">
@@ -13117,7 +13117,7 @@
         <v>0</v>
       </c>
       <c r="I318" s="15" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13128,7 +13128,7 @@
         <v>943</v>
       </c>
       <c r="C319" s="15" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D319" s="18" t="s">
         <v>944</v>
@@ -13143,7 +13143,7 @@
         <v>0</v>
       </c>
       <c r="I319" s="15" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13154,7 +13154,7 @@
         <v>945</v>
       </c>
       <c r="C320" s="15" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E320" s="17">
         <v>0</v>
@@ -13192,10 +13192,10 @@
         <v>0</v>
       </c>
       <c r="H321" s="17" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="I321" s="15" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="322" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13203,14 +13203,14 @@
         <v>321</v>
       </c>
       <c r="B322" s="18" t="s">
+        <v>958</v>
+      </c>
+      <c r="C322" s="19" t="s">
         <v>959</v>
       </c>
-      <c r="C322" s="19" t="s">
+      <c r="D322" s="18" t="s">
         <v>960</v>
       </c>
-      <c r="D322" s="18" t="s">
-        <v>961</v>
-      </c>
       <c r="E322" s="17">
         <v>0</v>
       </c>
@@ -13221,7 +13221,7 @@
         <v>0</v>
       </c>
       <c r="I322" s="15" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="323" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13229,25 +13229,25 @@
         <v>322</v>
       </c>
       <c r="B323" s="18" t="s">
+        <v>950</v>
+      </c>
+      <c r="C323" s="19" t="s">
+        <v>961</v>
+      </c>
+      <c r="D323" s="18" t="s">
         <v>951</v>
       </c>
-      <c r="C323" s="19" t="s">
-        <v>962</v>
-      </c>
-      <c r="D323" s="18" t="s">
+      <c r="E323" s="17">
+        <v>0</v>
+      </c>
+      <c r="F323" s="17">
+        <v>0</v>
+      </c>
+      <c r="G323" s="17">
+        <v>0</v>
+      </c>
+      <c r="I323" s="15" t="s">
         <v>952</v>
-      </c>
-      <c r="E323" s="17">
-        <v>0</v>
-      </c>
-      <c r="F323" s="17">
-        <v>0</v>
-      </c>
-      <c r="G323" s="17">
-        <v>0</v>
-      </c>
-      <c r="I323" s="15" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="324" spans="1:9" ht="16.5">
@@ -13255,13 +13255,13 @@
         <v>323</v>
       </c>
       <c r="B324" s="53" t="s">
+        <v>965</v>
+      </c>
+      <c r="C324" s="19" t="s">
         <v>966</v>
       </c>
-      <c r="C324" s="19" t="s">
+      <c r="D324" t="s">
         <v>967</v>
-      </c>
-      <c r="D324" t="s">
-        <v>968</v>
       </c>
       <c r="E324" s="17">
         <v>1</v>
@@ -13281,13 +13281,13 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
+        <v>968</v>
+      </c>
+      <c r="C325" t="s">
         <v>969</v>
       </c>
-      <c r="C325" t="s">
+      <c r="D325" t="s">
         <v>970</v>
-      </c>
-      <c r="D325" t="s">
-        <v>971</v>
       </c>
       <c r="E325">
         <v>1</v>
